--- a/Code/Results/Cases/Case_3_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9627162537194351</v>
+        <v>0.4013624899316142</v>
       </c>
       <c r="C2">
-        <v>0.2229240893708493</v>
+        <v>0.0866989264809348</v>
       </c>
       <c r="D2">
-        <v>0.05805825391670538</v>
+        <v>0.05685525389132806</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.008439594807115</v>
+        <v>1.293505937744186</v>
       </c>
       <c r="G2">
-        <v>0.0008231648676734431</v>
+        <v>0.002486907507366913</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.6032245256813837</v>
+        <v>0.9256184846368072</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.152882276484576</v>
+        <v>0.471969531767769</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8341056737038741</v>
+        <v>0.365269467197237</v>
       </c>
       <c r="C3">
-        <v>0.1927031084014317</v>
+        <v>0.07840369955697213</v>
       </c>
       <c r="D3">
-        <v>0.05775540007271474</v>
+        <v>0.05638767675157297</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9600375611083649</v>
+        <v>1.288992706591984</v>
       </c>
       <c r="G3">
-        <v>0.0008287913412656016</v>
+        <v>0.002490351079537989</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5972129591316531</v>
+        <v>0.9294360497602554</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9982601947454555</v>
+        <v>0.4288580102792707</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.755663428873504</v>
+        <v>0.3432446107302951</v>
       </c>
       <c r="C4">
-        <v>0.174367273079028</v>
+        <v>0.07334664119406398</v>
       </c>
       <c r="D4">
-        <v>0.05757068575580959</v>
+        <v>0.0560976547413965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9324869432194163</v>
+        <v>1.287022783986934</v>
       </c>
       <c r="G4">
-        <v>0.0008323484641500542</v>
+        <v>0.002492576795849499</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5948382020550937</v>
+        <v>0.9322897607712264</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9040673569519129</v>
+        <v>0.4025568541258906</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7238078340711525</v>
+        <v>0.3343038558852243</v>
       </c>
       <c r="C5">
-        <v>0.1669429370059419</v>
+        <v>0.07129491054685388</v>
       </c>
       <c r="D5">
-        <v>0.0574957244573433</v>
+        <v>0.05597875194122537</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9217705880768676</v>
+        <v>1.286421047345854</v>
       </c>
       <c r="G5">
-        <v>0.000833824489665351</v>
+        <v>0.002493511880149283</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5941838353272502</v>
+        <v>0.9335805782021822</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8658414082019306</v>
+        <v>0.3918817059417279</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7185242861083339</v>
+        <v>0.3328213448391182</v>
       </c>
       <c r="C6">
-        <v>0.1657127966231542</v>
+        <v>0.07095476803851852</v>
       </c>
       <c r="D6">
-        <v>0.05748329625510351</v>
+        <v>0.05595896553586144</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9200210231580002</v>
+        <v>1.286333257534672</v>
       </c>
       <c r="G6">
-        <v>0.0008340712011735877</v>
+        <v>0.002493668849231351</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5940936088348536</v>
+        <v>0.9338026349901014</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.85950277033362</v>
+        <v>0.3901116949719494</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.755233394526158</v>
+        <v>0.3431238923405999</v>
       </c>
       <c r="C7">
-        <v>0.1742669626277831</v>
+        <v>0.0733189342135887</v>
       </c>
       <c r="D7">
-        <v>0.05756967353118725</v>
+        <v>0.05609605405140883</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.93234039483076</v>
+        <v>1.28701385542508</v>
       </c>
       <c r="G7">
-        <v>0.0008323682622866272</v>
+        <v>0.002492589293127402</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5948281307776497</v>
+        <v>0.9323066516503502</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9035512241971446</v>
+        <v>0.4024127118777869</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9182487121638587</v>
+        <v>0.3888894432214443</v>
       </c>
       <c r="C8">
-        <v>0.212453467826947</v>
+        <v>0.08383117537914586</v>
       </c>
       <c r="D8">
-        <v>0.05795356784173222</v>
+        <v>0.05669465251120087</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9912790632893547</v>
+        <v>1.291783207072939</v>
       </c>
       <c r="G8">
-        <v>0.0008250840528733483</v>
+        <v>0.002488071793053551</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.6008675655497058</v>
+        <v>0.9268288310016715</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.099395621020221</v>
+        <v>0.4570695852218876</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.243163359724974</v>
+        <v>0.4797117918444656</v>
       </c>
       <c r="C9">
-        <v>0.2894582568565056</v>
+        <v>0.1047367203502176</v>
       </c>
       <c r="D9">
-        <v>0.05871711700056181</v>
+        <v>0.05784447508269608</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.125738204711453</v>
+        <v>1.307515661617316</v>
       </c>
       <c r="G9">
-        <v>0.0008115782378697157</v>
+        <v>0.002480092513742202</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.6240098677074499</v>
+        <v>0.920143615526996</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.49079732261464</v>
+        <v>0.5655951296696458</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.486716813361369</v>
+        <v>0.5470943528563339</v>
       </c>
       <c r="C10">
-        <v>0.34790022924102</v>
+        <v>0.1202799263139696</v>
       </c>
       <c r="D10">
-        <v>0.05928734964292559</v>
+        <v>0.0586736337612308</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.238560298472052</v>
+        <v>1.322997742861219</v>
       </c>
       <c r="G10">
-        <v>0.0008020784096580668</v>
+        <v>0.002474760729564521</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6491857440992348</v>
+        <v>0.917723132723161</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.785031763395693</v>
+        <v>0.6461551734052762</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.598970882608</v>
+        <v>0.5778911211501736</v>
       </c>
       <c r="C11">
-        <v>0.3750341760015488</v>
+        <v>0.1273923636536267</v>
       </c>
       <c r="D11">
-        <v>0.05954982134309716</v>
+        <v>0.05904725697877211</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.293552150559094</v>
+        <v>1.330900415883931</v>
       </c>
       <c r="G11">
-        <v>0.0007978359764861753</v>
+        <v>0.002472449184818105</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6627285500508577</v>
+        <v>0.9171668508520341</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.920875152891199</v>
+        <v>0.6829856340172</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.641725474523383</v>
+        <v>0.5895736524929021</v>
       </c>
       <c r="C12">
-        <v>0.3854010283718594</v>
+        <v>0.1300917495734382</v>
       </c>
       <c r="D12">
-        <v>0.05964977571604635</v>
+        <v>0.05918820876921416</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.314960571177323</v>
+        <v>1.334017137197293</v>
       </c>
       <c r="G12">
-        <v>0.0007962397160657082</v>
+        <v>0.002471590153005635</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6681864807385125</v>
+        <v>0.9170348498118841</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.972651704070842</v>
+        <v>0.6969587192143081</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.632505931759539</v>
+        <v>0.5870567042807124</v>
       </c>
       <c r="C13">
-        <v>0.3831640374800145</v>
+        <v>0.1295101180863014</v>
       </c>
       <c r="D13">
-        <v>0.05962822150443969</v>
+        <v>0.05915787619490231</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.310322942659553</v>
+        <v>1.333340365708665</v>
       </c>
       <c r="G13">
-        <v>0.0007965830620184633</v>
+        <v>0.002471774437060808</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6669958691141744</v>
+        <v>0.9170597756768331</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.961484943794858</v>
+        <v>0.6939482031623072</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.602483169178583</v>
+        <v>0.5788518413769168</v>
       </c>
       <c r="C14">
-        <v>0.3758851442324271</v>
+        <v>0.1276143219782284</v>
       </c>
       <c r="D14">
-        <v>0.05955803258438408</v>
+        <v>0.05905886391764881</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.295301382358744</v>
+        <v>1.331154339325735</v>
       </c>
       <c r="G14">
-        <v>0.0007977044523372973</v>
+        <v>0.002472378185428415</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6631707964794202</v>
+        <v>0.9171544130037219</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.925127818636753</v>
+        <v>0.6841346842223857</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.58412659015994</v>
+        <v>0.5738287833140419</v>
       </c>
       <c r="C15">
-        <v>0.3714389755896832</v>
+        <v>0.12645388302127</v>
       </c>
       <c r="D15">
-        <v>0.05951511714472701</v>
+        <v>0.05899814631855804</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.286178095576446</v>
+        <v>1.32983151831894</v>
       </c>
       <c r="G15">
-        <v>0.0007983926372600445</v>
+        <v>0.002472750119216219</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6608716552021008</v>
+        <v>0.9172226328973494</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.902903263516237</v>
+        <v>0.67812702620202</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.479413167365408</v>
+        <v>0.545084589157284</v>
       </c>
       <c r="C16">
-        <v>0.3461390758962466</v>
+        <v>0.119815956786681</v>
       </c>
       <c r="D16">
-        <v>0.05927026789283829</v>
+        <v>0.05864914326769366</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.235044997158013</v>
+        <v>1.322498629757234</v>
       </c>
       <c r="G16">
-        <v>0.0008023571609037862</v>
+        <v>0.002474914079623144</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6483451675214837</v>
+        <v>0.9177704763258916</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.776198280629899</v>
+        <v>0.6437518900102646</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.415573757201685</v>
+        <v>0.5274876800709478</v>
       </c>
       <c r="C17">
-        <v>0.3307676895172165</v>
+        <v>0.1157545380352758</v>
       </c>
       <c r="D17">
-        <v>0.05912092346032694</v>
+        <v>0.05843411471276383</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.204654791438458</v>
+        <v>1.318220719843339</v>
       </c>
       <c r="G17">
-        <v>0.0008048087602606809</v>
+        <v>0.00247627071746501</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6412157173564097</v>
+        <v>0.9182463182481087</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.699013027035164</v>
+        <v>0.622710681719667</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.378990100522429</v>
+        <v>0.5173799822134413</v>
       </c>
       <c r="C18">
-        <v>0.3219772450331391</v>
+        <v>0.1134224441723859</v>
       </c>
       <c r="D18">
-        <v>0.05903530449455374</v>
+        <v>0.05831010147544546</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.187516758154075</v>
+        <v>1.315841076714264</v>
       </c>
       <c r="G18">
-        <v>0.0008062263716644715</v>
+        <v>0.002477061746151591</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.6373098953064584</v>
+        <v>0.9185712714236374</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.65480267484466</v>
+        <v>0.6106255973346038</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.366625649399822</v>
+        <v>0.5139600295179036</v>
       </c>
       <c r="C19">
-        <v>0.3190092971355512</v>
+        <v>0.1126335099975222</v>
       </c>
       <c r="D19">
-        <v>0.059006360291189</v>
+        <v>0.05826805584674588</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.181771143773929</v>
+        <v>1.315049249030508</v>
       </c>
       <c r="G19">
-        <v>0.0008067076739608717</v>
+        <v>0.002477331419800906</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.6360200762179531</v>
+        <v>0.9186900898068018</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.639864096711989</v>
+        <v>0.6065367654026659</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.422355337875075</v>
+        <v>0.5293594976137967</v>
       </c>
       <c r="C20">
-        <v>0.3323986554805174</v>
+        <v>0.1161864761859022</v>
       </c>
       <c r="D20">
-        <v>0.05913679167406372</v>
+        <v>0.05845703962500437</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.207854131567558</v>
+        <v>1.318667734345922</v>
       </c>
       <c r="G20">
-        <v>0.0008045470131995804</v>
+        <v>0.002476125191541497</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6419542918188696</v>
+        <v>0.9181903564542182</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.707210088733973</v>
+        <v>0.6249487689360365</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.611294587267111</v>
+        <v>0.581261255160257</v>
       </c>
       <c r="C21">
-        <v>0.3780205300761281</v>
+        <v>0.1281709983263397</v>
       </c>
       <c r="D21">
-        <v>0.05957863240323746</v>
+        <v>0.05908796078660572</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.299697245583275</v>
+        <v>1.331793054770571</v>
       </c>
       <c r="G21">
-        <v>0.0007973748037925166</v>
+        <v>0.002472200408134716</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6642851240468772</v>
+        <v>0.9171244787115427</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.935797267131846</v>
+        <v>0.6870164431686874</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.736233061842711</v>
+        <v>0.6153012149040933</v>
       </c>
       <c r="C22">
-        <v>0.4083792081169975</v>
+        <v>0.1360389267421169</v>
       </c>
       <c r="D22">
-        <v>0.05987075575962564</v>
+        <v>0.05949719966268674</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.363157447337244</v>
+        <v>1.341095092313736</v>
       </c>
       <c r="G22">
-        <v>0.0007927465446345983</v>
+        <v>0.002469730307889923</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6808160529171161</v>
+        <v>0.9168864460031045</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.087174510298269</v>
+        <v>0.7277338319668445</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.669404886956329</v>
+        <v>0.5971226286385161</v>
       </c>
       <c r="C23">
-        <v>0.3921219773265818</v>
+        <v>0.1318364120014337</v>
       </c>
       <c r="D23">
-        <v>0.05971448895403597</v>
+        <v>0.05927907123960097</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.328953055217482</v>
+        <v>1.336064015323004</v>
       </c>
       <c r="G23">
-        <v>0.0007952117125010883</v>
+        <v>0.002471039983302604</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.6718056889790702</v>
+        <v>0.9169714267192859</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.006182872052221</v>
+        <v>0.7059882888015068</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.419289018952725</v>
+        <v>0.5285132208525454</v>
       </c>
       <c r="C24">
-        <v>0.3316611510527139</v>
+        <v>0.1159911880144193</v>
       </c>
       <c r="D24">
-        <v>0.05912961691235807</v>
+        <v>0.05844667648667468</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.206406674711005</v>
+        <v>1.318465390597922</v>
       </c>
       <c r="G24">
-        <v>0.0008046653235794563</v>
+        <v>0.002476190949205148</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6416197833308459</v>
+        <v>0.9182154967354919</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.703503688455982</v>
+        <v>0.6239368929830675</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.154542916309452</v>
+        <v>0.4550268145255529</v>
       </c>
       <c r="C25">
-        <v>0.2683431774809151</v>
+        <v>0.09904939102375465</v>
       </c>
       <c r="D25">
-        <v>0.05850920459112885</v>
+        <v>0.05753609188373332</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.087093988857916</v>
+        <v>1.302573082676474</v>
       </c>
       <c r="G25">
-        <v>0.0008151536786244759</v>
+        <v>0.002482157541004066</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.6164133525693458</v>
+        <v>0.9215159732039808</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.383910957934432</v>
+        <v>0.5360915260727097</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_128/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_128/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4013624899316142</v>
+        <v>0.9627162537193499</v>
       </c>
       <c r="C2">
-        <v>0.0866989264809348</v>
+        <v>0.222924089370963</v>
       </c>
       <c r="D2">
-        <v>0.05685525389132806</v>
+        <v>0.05805825391655972</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.293505937744186</v>
+        <v>1.008439594807129</v>
       </c>
       <c r="G2">
-        <v>0.002486907507366913</v>
+        <v>0.000823164867636886</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9256184846368072</v>
+        <v>0.6032245256813908</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.471969531767769</v>
+        <v>1.152882276484661</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.365269467197237</v>
+        <v>0.8341056737038457</v>
       </c>
       <c r="C3">
-        <v>0.07840369955697213</v>
+        <v>0.1927031084013038</v>
       </c>
       <c r="D3">
-        <v>0.05638767675157297</v>
+        <v>0.05775540007281421</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.288992706591984</v>
+        <v>0.9600375611083933</v>
       </c>
       <c r="G3">
-        <v>0.002490351079537989</v>
+        <v>0.0008287913412615092</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9294360497602554</v>
+        <v>0.5972129591316602</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4288580102792707</v>
+        <v>0.9982601947454555</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3432446107302951</v>
+        <v>0.755663428873504</v>
       </c>
       <c r="C4">
-        <v>0.07334664119406398</v>
+        <v>0.1743672730792696</v>
       </c>
       <c r="D4">
-        <v>0.0560976547413965</v>
+        <v>0.05757068575569946</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.287022783986934</v>
+        <v>0.9324869432194234</v>
       </c>
       <c r="G4">
-        <v>0.002492576795849499</v>
+        <v>0.0008323484641519038</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9322897607712264</v>
+        <v>0.5948382020550937</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4025568541258906</v>
+        <v>0.9040673569518276</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3343038558852243</v>
+        <v>0.7238078340711809</v>
       </c>
       <c r="C5">
-        <v>0.07129491054685388</v>
+        <v>0.1669429370062829</v>
       </c>
       <c r="D5">
-        <v>0.05597875194122537</v>
+        <v>0.05749572445748186</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.286421047345854</v>
+        <v>0.9217705880768605</v>
       </c>
       <c r="G5">
-        <v>0.002493511880149283</v>
+        <v>0.0008338244896400352</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9335805782021822</v>
+        <v>0.5941838353272288</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3918817059417279</v>
+        <v>0.8658414082018453</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3328213448391182</v>
+        <v>0.7185242861081917</v>
       </c>
       <c r="C6">
-        <v>0.07095476803851852</v>
+        <v>0.16571279662314</v>
       </c>
       <c r="D6">
-        <v>0.05595896553586144</v>
+        <v>0.05748329625485127</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.286333257534672</v>
+        <v>0.9200210231580215</v>
       </c>
       <c r="G6">
-        <v>0.002493668849231351</v>
+        <v>0.0008340712011699059</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9338026349901014</v>
+        <v>0.5940936088348607</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3901116949719494</v>
+        <v>0.8595027703336768</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3431238923405999</v>
+        <v>0.7552333945263285</v>
       </c>
       <c r="C7">
-        <v>0.0733189342135887</v>
+        <v>0.1742669626283515</v>
       </c>
       <c r="D7">
-        <v>0.05609605405140883</v>
+        <v>0.05756967353112685</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.28701385542508</v>
+        <v>0.9323403948307671</v>
       </c>
       <c r="G7">
-        <v>0.002492589293127402</v>
+        <v>0.0008323682622570579</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9323066516503502</v>
+        <v>0.5948281307776497</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4024127118777869</v>
+        <v>0.9035512241969741</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3888894432214443</v>
+        <v>0.9182487121636882</v>
       </c>
       <c r="C8">
-        <v>0.08383117537914586</v>
+        <v>0.2124534678267196</v>
       </c>
       <c r="D8">
-        <v>0.05669465251120087</v>
+        <v>0.05795356784179972</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.291783207072939</v>
+        <v>0.9912790632893405</v>
       </c>
       <c r="G8">
-        <v>0.002488071793053551</v>
+        <v>0.0008250840528746895</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9268288310016715</v>
+        <v>0.6008675655496845</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4570695852218876</v>
+        <v>1.099395621020165</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.4797117918444656</v>
+        <v>1.243163359724974</v>
       </c>
       <c r="C9">
-        <v>0.1047367203502176</v>
+        <v>0.2894582568565056</v>
       </c>
       <c r="D9">
-        <v>0.05784447508269608</v>
+        <v>0.05871711700072879</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.307515661617316</v>
+        <v>1.125738204711439</v>
       </c>
       <c r="G9">
-        <v>0.002480092513742202</v>
+        <v>0.0008115782379317399</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.920143615526996</v>
+        <v>0.6240098677074357</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5655951296696458</v>
+        <v>1.490797322614526</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5470943528563339</v>
+        <v>1.48671681336134</v>
       </c>
       <c r="C10">
-        <v>0.1202799263139696</v>
+        <v>0.3479002292409632</v>
       </c>
       <c r="D10">
-        <v>0.0586736337612308</v>
+        <v>0.05928734964290072</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.322997742861219</v>
+        <v>1.238560298472052</v>
       </c>
       <c r="G10">
-        <v>0.002474760729564521</v>
+        <v>0.0008020784096824286</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.917723132723161</v>
+        <v>0.6491857440992206</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6461551734052762</v>
+        <v>1.785031763395665</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5778911211501736</v>
+        <v>1.598970882608057</v>
       </c>
       <c r="C11">
-        <v>0.1273923636536267</v>
+        <v>0.3750341760016909</v>
       </c>
       <c r="D11">
-        <v>0.05904725697877211</v>
+        <v>0.05954982134297637</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.330900415883931</v>
+        <v>1.29355215055908</v>
       </c>
       <c r="G11">
-        <v>0.002472449184818105</v>
+        <v>0.0007978359764278227</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9171668508520341</v>
+        <v>0.6627285500508435</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6829856340172</v>
+        <v>1.920875152891199</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5895736524929021</v>
+        <v>1.641725474523412</v>
       </c>
       <c r="C12">
-        <v>0.1300917495734382</v>
+        <v>0.3854010283717741</v>
       </c>
       <c r="D12">
-        <v>0.05918820876921416</v>
+        <v>0.05964977571613872</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.334017137197293</v>
+        <v>1.314960571177309</v>
       </c>
       <c r="G12">
-        <v>0.002471590153005635</v>
+        <v>0.0007962397160510282</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9170348498118841</v>
+        <v>0.6681864807384983</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6969587192143081</v>
+        <v>1.97265170407087</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5870567042807124</v>
+        <v>1.632505931759596</v>
       </c>
       <c r="C13">
-        <v>0.1295101180863014</v>
+        <v>0.383164037479844</v>
       </c>
       <c r="D13">
-        <v>0.05915787619490231</v>
+        <v>0.05962822150434732</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.333340365708665</v>
+        <v>1.310322942659568</v>
       </c>
       <c r="G13">
-        <v>0.002471774437060808</v>
+        <v>0.0007965830620055205</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9170597756768331</v>
+        <v>0.6669958691141744</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6939482031623072</v>
+        <v>1.961484943794858</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5788518413769168</v>
+        <v>1.602483169178441</v>
       </c>
       <c r="C14">
-        <v>0.1276143219782284</v>
+        <v>0.3758851442324556</v>
       </c>
       <c r="D14">
-        <v>0.05905886391764881</v>
+        <v>0.0595580325844054</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.331154339325735</v>
+        <v>1.295301382358744</v>
       </c>
       <c r="G14">
-        <v>0.002472378185428415</v>
+        <v>0.0007977044523620699</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9171544130037219</v>
+        <v>0.6631707964794344</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6841346842223857</v>
+        <v>1.925127818636724</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5738287833140419</v>
+        <v>1.584126590159883</v>
       </c>
       <c r="C15">
-        <v>0.12645388302127</v>
+        <v>0.3714389755897685</v>
       </c>
       <c r="D15">
-        <v>0.05899814631855804</v>
+        <v>0.05951511714490465</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.32983151831894</v>
+        <v>1.286178095576474</v>
       </c>
       <c r="G15">
-        <v>0.002472750119216219</v>
+        <v>0.000798392637256562</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9172226328973494</v>
+        <v>0.6608716552020937</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.67812702620202</v>
+        <v>1.902903263516237</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.545084589157284</v>
+        <v>1.479413167365578</v>
       </c>
       <c r="C16">
-        <v>0.119815956786681</v>
+        <v>0.3461390758963319</v>
       </c>
       <c r="D16">
-        <v>0.05864914326769366</v>
+        <v>0.05927026789290224</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.322498629757234</v>
+        <v>1.235044997158013</v>
       </c>
       <c r="G16">
-        <v>0.002474914079623144</v>
+        <v>0.0008023571609286298</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9177704763258916</v>
+        <v>0.6483451675214766</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6437518900102646</v>
+        <v>1.776198280629842</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5274876800709478</v>
+        <v>1.415573757201571</v>
       </c>
       <c r="C17">
-        <v>0.1157545380352758</v>
+        <v>0.3307676895171312</v>
       </c>
       <c r="D17">
-        <v>0.05843411471276383</v>
+        <v>0.05912092346024167</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.318220719843339</v>
+        <v>1.204654791438472</v>
       </c>
       <c r="G17">
-        <v>0.00247627071746501</v>
+        <v>0.0008048087602937085</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9182463182481087</v>
+        <v>0.6412157173564452</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.622710681719667</v>
+        <v>1.699013027035193</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5173799822134413</v>
+        <v>1.378990100522344</v>
       </c>
       <c r="C18">
-        <v>0.1134224441723859</v>
+        <v>0.3219772450331675</v>
       </c>
       <c r="D18">
-        <v>0.05831010147544546</v>
+        <v>0.05903530449456085</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.315841076714264</v>
+        <v>1.187516758154061</v>
       </c>
       <c r="G18">
-        <v>0.002477061746151591</v>
+        <v>0.0008062263716358562</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9185712714236374</v>
+        <v>0.6373098953064513</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6106255973346038</v>
+        <v>1.654802674844603</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5139600295179036</v>
+        <v>1.366625649399822</v>
       </c>
       <c r="C19">
-        <v>0.1126335099975222</v>
+        <v>0.3190092971356648</v>
       </c>
       <c r="D19">
-        <v>0.05826805584674588</v>
+        <v>0.05900636029098294</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.315049249030508</v>
+        <v>1.181771143773929</v>
       </c>
       <c r="G19">
-        <v>0.002477331419800906</v>
+        <v>0.0008067076738555136</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9186900898068018</v>
+        <v>0.6360200762179602</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6065367654026659</v>
+        <v>1.639864096712017</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5293594976137967</v>
+        <v>1.422355337875103</v>
       </c>
       <c r="C20">
-        <v>0.1161864761859022</v>
+        <v>0.3323986554804605</v>
       </c>
       <c r="D20">
-        <v>0.05845703962500437</v>
+        <v>0.05913679167404595</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.318667734345922</v>
+        <v>1.207854131567544</v>
       </c>
       <c r="G20">
-        <v>0.002476125191541497</v>
+        <v>0.0008045470132346155</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9181903564542182</v>
+        <v>0.6419542918188696</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6249487689360365</v>
+        <v>1.707210088734001</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.581261255160257</v>
+        <v>1.611294587267196</v>
       </c>
       <c r="C21">
-        <v>0.1281709983263397</v>
+        <v>0.3780205300760997</v>
       </c>
       <c r="D21">
-        <v>0.05908796078660572</v>
+        <v>0.05957863240340089</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.331793054770571</v>
+        <v>1.299697245583275</v>
       </c>
       <c r="G21">
-        <v>0.002472200408134716</v>
+        <v>0.0007973748038161182</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9171244787115427</v>
+        <v>0.6642851240468914</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6870164431686874</v>
+        <v>1.935797267131818</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6153012149040933</v>
+        <v>1.736233061842796</v>
       </c>
       <c r="C22">
-        <v>0.1360389267421169</v>
+        <v>0.4083792081172533</v>
       </c>
       <c r="D22">
-        <v>0.05949719966268674</v>
+        <v>0.05987075575960432</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.341095092313736</v>
+        <v>1.363157447337258</v>
       </c>
       <c r="G22">
-        <v>0.002469730307889923</v>
+        <v>0.0007927465446438247</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9168864460031045</v>
+        <v>0.6808160529171232</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.7277338319668445</v>
+        <v>2.087174510298325</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5971226286385161</v>
+        <v>1.669404886956244</v>
       </c>
       <c r="C23">
-        <v>0.1318364120014337</v>
+        <v>0.3921219773266955</v>
       </c>
       <c r="D23">
-        <v>0.05927907123960097</v>
+        <v>0.05971448895402887</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.336064015323004</v>
+        <v>1.328953055217482</v>
       </c>
       <c r="G23">
-        <v>0.002471039983302604</v>
+        <v>0.0007952117124711788</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9169714267192859</v>
+        <v>0.6718056889790631</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7059882888015068</v>
+        <v>2.006182872052278</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5285132208525454</v>
+        <v>1.419289018952782</v>
       </c>
       <c r="C24">
-        <v>0.1159911880144193</v>
+        <v>0.331661151052856</v>
       </c>
       <c r="D24">
-        <v>0.05844667648667468</v>
+        <v>0.05912961691221952</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.318465390597922</v>
+        <v>1.206406674710991</v>
       </c>
       <c r="G24">
-        <v>0.002476190949205148</v>
+        <v>0.0008046653235764924</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9182154967354919</v>
+        <v>0.6416197833308459</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6239368929830675</v>
+        <v>1.703503688456038</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4550268145255529</v>
+        <v>1.15454291630931</v>
       </c>
       <c r="C25">
-        <v>0.09904939102375465</v>
+        <v>0.268343177480773</v>
       </c>
       <c r="D25">
-        <v>0.05753609188373332</v>
+        <v>0.05850920459088726</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.302573082676474</v>
+        <v>1.08709398885793</v>
       </c>
       <c r="G25">
-        <v>0.002482157541004066</v>
+        <v>0.0008151536786317902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9215159732039808</v>
+        <v>0.61641335256936</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5360915260727097</v>
+        <v>1.383910957934404</v>
       </c>
       <c r="L25">
         <v>0</v>
